--- a/paperpusher/tests/test_files/test.xlsx
+++ b/paperpusher/tests/test_files/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\paper-pusher\paper-pusher\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\paperpusher\paperpusher\tests\test_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>First name</t>
   </si>
@@ -60,6 +60,15 @@
   </si>
   <si>
     <t>Female</t>
+  </si>
+  <si>
+    <t>Eric</t>
+  </si>
+  <si>
+    <t>Leive</t>
+  </si>
+  <si>
+    <t>Cora</t>
   </si>
 </sst>
 </file>
@@ -411,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,6 +493,40 @@
       </c>
       <c r="E4" s="2"/>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2">
+        <v>28368</v>
+      </c>
+      <c r="E5" s="2">
+        <v>37524</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2">
+        <v>17396</v>
+      </c>
+      <c r="E6" s="2">
+        <v>38523</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
